--- a/data/trans_bre/P19C01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C01-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.049597003828795</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6.631688452239337</v>
+        <v>6.631688452239326</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1661959011716984</v>
@@ -649,7 +649,7 @@
         <v>0.01987749492119061</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1002911301039326</v>
+        <v>0.1002911301039324</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.212104874017245</v>
+        <v>-0.1575474605990064</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.309039410084355</v>
+        <v>-6.166766958937866</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.095791740424476</v>
+        <v>-6.657902989946615</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.833740226483263</v>
+        <v>-3.442850551445433</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.007883151064995413</v>
+        <v>-0.002862329366607021</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1338214630826265</v>
+        <v>-0.1281715651775645</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1082010763235571</v>
+        <v>-0.1164434429107872</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.05246472143609657</v>
+        <v>-0.0463101499440413</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.11133845173146</v>
+        <v>14.2889699661866</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.449263420589503</v>
+        <v>8.315621186052995</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.334227900516405</v>
+        <v>8.683367579817622</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.66103868681658</v>
+        <v>16.77064947391359</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3526600159462664</v>
+        <v>0.3950835450653029</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2031894727516083</v>
+        <v>0.2065810606943091</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1726317670196596</v>
+        <v>0.1814008701894917</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2932264378023409</v>
+        <v>0.2857494686716375</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.725791924961115</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.6859374059339007</v>
+        <v>-0.6859374059338896</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1756087591540203</v>
@@ -749,7 +749,7 @@
         <v>0.1178972868934436</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.01045269019955733</v>
+        <v>-0.01045269019955716</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02005021508552456</v>
+        <v>0.1420994410008901</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2048912907443187</v>
+        <v>1.101630074995354</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.517738428008028</v>
+        <v>-1.341502962451653</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-8.011015071394462</v>
+        <v>-8.166754607647771</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.001589323296648552</v>
+        <v>0.0006426941476589409</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005326788270597765</v>
+        <v>0.02906214065910571</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.03432365172129973</v>
+        <v>-0.03212923190077725</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1136654987325678</v>
+        <v>-0.1158638089463592</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.69254374528045</v>
+        <v>11.85772550072427</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.28093992873636</v>
+        <v>12.69791926198585</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.62589046697663</v>
+        <v>11.28275189695344</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.191918090015928</v>
+        <v>6.387227383682072</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3911266425621192</v>
+        <v>0.3888103809270998</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3943409256702021</v>
+        <v>0.411599124863315</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2875863313156425</v>
+        <v>0.3032206239247741</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.138508168292524</v>
+        <v>0.1052136590159036</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>6.187365090539688</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.248612834789233</v>
+        <v>3.248612834789255</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04787566144629515</v>
@@ -849,7 +849,7 @@
         <v>0.1518664980580254</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.05422073675109452</v>
+        <v>0.05422073675109491</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.091363192363045</v>
+        <v>-4.14321798356955</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.376729540009106</v>
+        <v>2.170955963608307</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.1572098172714352</v>
+        <v>-0.4415134404085159</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.414088663499549</v>
+        <v>-2.355287084899809</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1219699343337192</v>
+        <v>-0.1255730748499061</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06543648474954981</v>
+        <v>0.06031783978932052</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.0005594138451980267</v>
+        <v>-0.006208316402542018</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.03778250650596552</v>
+        <v>-0.03657496854571153</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.862313609192744</v>
+        <v>7.309096516665154</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.39113238454026</v>
+        <v>13.56476198280387</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.75921169984973</v>
+        <v>11.03811798227301</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.83299643821184</v>
+        <v>8.52173183286439</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2533006253115768</v>
+        <v>0.2690331262943073</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4789810441262875</v>
+        <v>0.4933326629725063</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3128368482903446</v>
+        <v>0.297985084589704</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1553894403949086</v>
+        <v>0.1511238451791952</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.393568048259471</v>
+        <v>-3.02012535149666</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.12875169004265</v>
+        <v>1.814358721211424</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-4.121522060278406</v>
+        <v>-5.155698950500944</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.959303705972338</v>
+        <v>-2.047424159785923</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1167256863280389</v>
+        <v>-0.1020177948612746</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07772945829806513</v>
+        <v>0.06212193790108221</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.09245160474979168</v>
+        <v>-0.1123796591687026</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.0315749922473561</v>
+        <v>-0.03296517454778457</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.150139677135408</v>
+        <v>9.280480473068772</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.11339372345096</v>
+        <v>13.95898427202132</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.871430295734916</v>
+        <v>7.987009460664514</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.743615305594971</v>
+        <v>7.594592306683801</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4032688885607925</v>
+        <v>0.4131047198212582</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5707320373471632</v>
+        <v>0.6034493510327767</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2053895854619817</v>
+        <v>0.204756906461644</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1380499840702454</v>
+        <v>0.1355138717952688</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>3.212927616523753</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.619593614721362</v>
+        <v>4.619593614721373</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1885626406175609</v>
@@ -1049,7 +1049,7 @@
         <v>0.08959837368586188</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.08954518769135691</v>
+        <v>0.08954518769135715</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-12.13659120168773</v>
+        <v>-11.70056191426617</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.345423773669684</v>
+        <v>-4.391843757715563</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.204679957195155</v>
+        <v>-4.596765246604964</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.4626922323388371</v>
+        <v>-0.3403270281821243</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3965602043485146</v>
+        <v>-0.3934956017364577</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1604219793412448</v>
+        <v>-0.1565445422417894</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1061613925643874</v>
+        <v>-0.1180187877924176</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.008285323445135813</v>
+        <v>-0.008317457849875681</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.057348104374054</v>
+        <v>2.679824814908506</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.658465867598855</v>
+        <v>9.091747120885827</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.78485652731439</v>
+        <v>10.19465588981131</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.77126891806382</v>
+        <v>9.488073162554917</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.09899682739328189</v>
+        <v>0.1170242049332628</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3936383804439308</v>
+        <v>0.4036176717222858</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.333294525700446</v>
+        <v>0.3240993867481454</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2042091462069228</v>
+        <v>0.1920143481583853</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-1.313698311487438</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2.468581030925088</v>
+        <v>2.468581030925099</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.06502575237262567</v>
@@ -1149,7 +1149,7 @@
         <v>-0.03670208518915422</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.0491015344644099</v>
+        <v>0.04910153446441012</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-8.305056207419652</v>
+        <v>-9.116616456479303</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.2644427630410957</v>
+        <v>-0.96834854702158</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-9.521187219833688</v>
+        <v>-10.31629415829623</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-3.06831755332559</v>
+        <v>-2.91004070493963</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3278796540114958</v>
+        <v>-0.3590073912519945</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.01756899001281416</v>
+        <v>-0.04942828052234699</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2343187432927127</v>
+        <v>-0.2541377028950842</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.05547090391185011</v>
+        <v>-0.05525558417680385</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.186679160377526</v>
+        <v>5.910377411211766</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>13.53877582376723</v>
+        <v>12.70282577933879</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.351886931868597</v>
+        <v>7.075848808180961</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8.016649193745581</v>
+        <v>7.555451681372573</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3361784025379072</v>
+        <v>0.3322231243440625</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.02809881759512</v>
+        <v>0.9312765660230875</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2467843247052614</v>
+        <v>0.2248079682541698</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1715232305568721</v>
+        <v>0.159780560343524</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>1.992258519443535</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1366989304896649</v>
+        <v>0.1366989304896871</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.08837349887625133</v>
@@ -1249,7 +1249,7 @@
         <v>0.06551911768145292</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.003250316383786779</v>
+        <v>0.003250316383787308</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-10.89786029967019</v>
+        <v>-10.71154460953373</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.360148049009281</v>
+        <v>-1.749269147152748</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.260189785056781</v>
+        <v>-8.23854852942913</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.348418215756605</v>
+        <v>-5.642475452870172</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.4876639000055288</v>
+        <v>-0.4625463789591268</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1309972793174562</v>
+        <v>-0.1029645588707782</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.2357382126037969</v>
+        <v>-0.2303043741648658</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.115806005047703</v>
+        <v>-0.1234586887854283</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.66661600335824</v>
+        <v>7.027823283006798</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.51364490873981</v>
+        <v>12.74932683011777</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.26200427009774</v>
+        <v>10.89838221737077</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.23447440494137</v>
+        <v>5.890094032100027</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5027301010576032</v>
+        <v>0.5694956889798405</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.300864631322345</v>
+        <v>1.322584907318673</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4514324861816204</v>
+        <v>0.4358947349664373</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.1668086365640685</v>
+        <v>0.1533897180125863</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>2.598297656122966</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2.069774802412327</v>
+        <v>2.069774802412339</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05279459572874643</v>
@@ -1349,7 +1349,7 @@
         <v>0.06372151631481444</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.03627230831326671</v>
+        <v>0.03627230831326691</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.9208946504929075</v>
+        <v>-1.272458776027707</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.404419481039328</v>
+        <v>2.336690789878933</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.06453011046602668</v>
+        <v>-0.312250377338666</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.4761006043263542</v>
+        <v>-0.1384531943960761</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.03018791758244679</v>
+        <v>-0.04030176384191315</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07852111428598614</v>
+        <v>0.07515081437521601</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.001623973558500025</v>
+        <v>-0.007765687040048441</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.007408062599418699</v>
+        <v>-0.002114944409027382</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.058320002838343</v>
+        <v>4.059239711779629</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>7.651350463415535</v>
+        <v>7.258020000209778</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5.334608983880989</v>
+        <v>5.403302709601756</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4.271467233461544</v>
+        <v>4.754266162148933</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1413124428586719</v>
+        <v>0.1430958008480857</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2721596596967069</v>
+        <v>0.2552173964093815</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1355452447925151</v>
+        <v>0.1361530571755165</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.07769684552193647</v>
+        <v>0.08576786744364458</v>
       </c>
     </row>
     <row r="28">
